--- a/biology/Botanique/La_Révolte_des_Triffides/La_Révolte_des_Triffides.xlsx
+++ b/biology/Botanique/La_Révolte_des_Triffides/La_Révolte_des_Triffides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_R%C3%A9volte_des_Triffides</t>
+          <t>La_Révolte_des_Triffides</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Révolte des Triffides (titre original : The Day of the Triffids) est un film britannique réalisé par Steve Sekely (et Freddie Francis pour les séquences additionnelles) sorti en 1963.
-Il s'agit d'une adaptation du roman de John Wyndham intitulé Le Jour des Triffides, publié en 1951[1].
+Il s'agit d'une adaptation du roman de John Wyndham intitulé Le Jour des Triffides, publié en 1951.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_R%C3%A9volte_des_Triffides</t>
+          <t>La_Révolte_des_Triffides</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une nuit, une éruption solaire crée un spectacle magnifique dans le ciel, mais rend aveugle toute personne qui la regarde, soit 99 % de la population terrestre. Des plantes (les Triffides) venant de l'espace et tombées sur la terre précédemment profitent de cette infirmité humaine pour se mettre à se déplacer et à attaquer les hommes désemparés.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_R%C3%A9volte_des_Triffides</t>
+          <t>La_Révolte_des_Triffides</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Révolte des Triffides
 Titre original : The Day of the Triffids
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_R%C3%A9volte_des_Triffides</t>
+          <t>La_Révolte_des_Triffides</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,9 +604,11 @@
           <t>Tournage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les producteurs mécontents du travail de Sekely réclamèrent un nouveau montage. Ce dernier réduisit le film à moins de 60 minutes, le rendant inexploitable. On décida donc d’incorporer l'histoire parallèle du couple de scientifiques travaillant dans un phare sur une île. Ces séquences additionnelles ont été tournées par Freddie Francis[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les producteurs mécontents du travail de Sekely réclamèrent un nouveau montage. Ce dernier réduisit le film à moins de 60 minutes, le rendant inexploitable. On décida donc d’incorporer l'histoire parallèle du couple de scientifiques travaillant dans un phare sur une île. Ces séquences additionnelles ont été tournées par Freddie Francis</t>
         </is>
       </c>
     </row>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_R%C3%A9volte_des_Triffides</t>
+          <t>La_Révolte_des_Triffides</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Howard Keel : Bill Masen
 Nicole Maurey : Christine Durrant
